--- a/gold/excel/operational_cost.xlsx
+++ b/gold/excel/operational_cost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,221 +468,551 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4005.26</v>
+        <v>17742.42</v>
       </c>
       <c r="C2" t="n">
-        <v>13473.92</v>
+        <v>23754.26</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20110.6</v>
+        <v>38853.66</v>
       </c>
       <c r="F2" t="n">
-        <v>37589.78</v>
+        <v>80350.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1612.25</v>
+        <v>3939.37</v>
       </c>
       <c r="C3" t="n">
-        <v>5477.92</v>
+        <v>4187.79</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16509.98</v>
+        <v>10907.39</v>
       </c>
       <c r="F3" t="n">
-        <v>23600.15</v>
+        <v>19034.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL1294</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2902.43</v>
+        <v>8703.969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>21632.35</v>
+        <v>9490.780000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>31952.7</v>
+        <v>18217.4</v>
       </c>
       <c r="F4" t="n">
-        <v>57197.48</v>
+        <v>36412.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL1344</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2041.48</v>
+        <v>4029.28</v>
       </c>
       <c r="C5" t="n">
-        <v>5720.27</v>
+        <v>4793.33</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>17202.86</v>
+        <v>11585.27</v>
       </c>
       <c r="F5" t="n">
-        <v>24964.61</v>
+        <v>20407.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1524</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2328.13</v>
+        <v>8089.73</v>
       </c>
       <c r="C6" t="n">
-        <v>8492.559999999999</v>
+        <v>7948.91</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22139.27</v>
+        <v>17342.83</v>
       </c>
       <c r="F6" t="n">
-        <v>32959.96</v>
+        <v>33381.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL1541</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.48</v>
+        <v>36322.68</v>
       </c>
       <c r="C7" t="n">
-        <v>4567.27</v>
+        <v>77684.28999999999</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>30492.12</v>
+        <v>48925.23</v>
       </c>
       <c r="F7" t="n">
-        <v>35872.87</v>
+        <v>162932.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL1573</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4281.3</v>
+        <v>8951.610000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>14114.49</v>
+        <v>9490.780000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12976.78</v>
+        <v>15621.55</v>
       </c>
       <c r="F8" t="n">
-        <v>31372.57</v>
+        <v>34063.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL1740</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1993.63</v>
+        <v>4019.08</v>
       </c>
       <c r="C9" t="n">
-        <v>9284.16</v>
+        <v>5467.01</v>
       </c>
       <c r="D9" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21808.63</v>
+        <v>13367.23</v>
       </c>
       <c r="F9" t="n">
-        <v>33736.42</v>
+        <v>22853.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL1832</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4948.02</v>
+        <v>17571.6</v>
       </c>
       <c r="C10" t="n">
-        <v>38905.02</v>
+        <v>28153.2</v>
       </c>
       <c r="D10" t="n">
-        <v>930</v>
+        <v>3660.75</v>
       </c>
       <c r="E10" t="n">
-        <v>18737.01</v>
+        <v>34301.88</v>
       </c>
       <c r="F10" t="n">
-        <v>63520.05</v>
+        <v>83687.42999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL1976</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.63</v>
+        <v>7231.59</v>
       </c>
       <c r="C11" t="n">
-        <v>10718.73</v>
+        <v>7591.66</v>
       </c>
       <c r="D11" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>18490.3</v>
+        <v>14062.01</v>
       </c>
       <c r="F11" t="n">
-        <v>33395.66</v>
+        <v>28885.26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17826.48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23754.26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36475.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>78055.85000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL2240</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8872.98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13330.89</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16778.86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>38982.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL2292</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>36715.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>55306.48</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38329.38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>130351.46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL2625</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3060.76</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2780.13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11234.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17075.72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL2644</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>39518.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>59403.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38637.52</v>
+      </c>
+      <c r="F16" t="n">
+        <v>137558.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL2664</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4057.77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4793.33</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13174.22</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22025.32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL2734</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17566.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23754.26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>285</v>
+      </c>
+      <c r="E18" t="n">
+        <v>37945.09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>79550.55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL2792</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18340.02</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25513.84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37287.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>81141.31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL2900</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4049.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3892.18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12455.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20397.42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL2948</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7695.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7055.77</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15603.58</v>
+      </c>
+      <c r="F21" t="n">
+        <v>31534.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL2977</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>36891.16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55306.48</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43520.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>135717.89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL3066</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3972.01</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5157.38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11046.75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20176.14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4235.35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6067.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13255.03</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23557.88</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL3271</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>39168.12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>59403.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>41576.81</v>
+      </c>
+      <c r="F25" t="n">
+        <v>140148.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL3335</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4056.78</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4793.33</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11228.59</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12992.39</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33071.09</v>
       </c>
     </row>
   </sheetData>
